--- a/VAKT2025.xlsx
+++ b/VAKT2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://furunonor-my.sharepoint.com/personal/johnny_ronning_furuno_no/Documents/WEBSIDE/Nidaros doomen/Intro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{A4B0B99A-6A0E-4ECD-A773-CA0767DFFC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53D4C2A9-2576-4A1A-B6C2-9D36065D0321}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{A4B0B99A-6A0E-4ECD-A773-CA0767DFFC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A85F5FD-6F35-4428-8CF9-F063DC17C57B}"/>
   <bookViews>
-    <workbookView xWindow="-60110" yWindow="-1790" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51720" yWindow="-255" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3700,14 +3700,17 @@
   </sheetPr>
   <dimension ref="A1:Q231"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" defaultGridColor="0" topLeftCell="A3" colorId="22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView showGridLines="0" tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H22" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" style="9" customWidth="1"/>
